--- a/training/output/CNN/W/W0_W1.xlsx
+++ b/training/output/CNN/W/W0_W1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4838286713286714</v>
+        <v>0.1654166666666667</v>
       </c>
       <c r="B2" t="n">
-        <v>3.139175675132058</v>
+        <v>3.201822102069855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8168706293706294</v>
+        <v>0.2777083333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>2.379851807247509</v>
+        <v>2.922992825508118</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.868006993006993</v>
+        <v>0.2545833333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>2.127601314674724</v>
+        <v>2.888467252254486</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8822115384615384</v>
+        <v>0.2822916666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>1.955520488999107</v>
+        <v>2.854561805725098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9005681818181818</v>
+        <v>0.3104166666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>1.836303423751484</v>
+        <v>2.791923940181732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9027534965034966</v>
+        <v>0.3354166666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>1.780016920783303</v>
+        <v>2.744024515151978</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9204545454545454</v>
+        <v>0.2925</v>
       </c>
       <c r="B8" t="n">
-        <v>1.74519451639869</v>
+        <v>2.72879421710968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9289772727272727</v>
+        <v>0.3079166666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>1.682135137644681</v>
+        <v>2.701618432998657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.295</v>
       </c>
       <c r="B10" t="n">
-        <v>1.642389958555048</v>
+        <v>2.658363163471222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9261363636363636</v>
+        <v>0.3408333333333333</v>
       </c>
       <c r="B11" t="n">
-        <v>1.608119628646157</v>
+        <v>2.640787661075592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9377185314685316</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.603982107205824</v>
+        <v>2.58502334356308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9147727272727273</v>
+        <v>0.39375</v>
       </c>
       <c r="B13" t="n">
-        <v>1.600417646494779</v>
+        <v>2.555152893066406</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.3560416666666666</v>
       </c>
       <c r="B14" t="n">
-        <v>1.5754753947258</v>
+        <v>2.572387278079987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9289772727272727</v>
+        <v>0.4033333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>1.573829889297485</v>
+        <v>2.517842352390289</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9431818181818182</v>
+        <v>0.39125</v>
       </c>
       <c r="B16" t="n">
-        <v>1.567500932650133</v>
+        <v>2.481023609638214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.3808333333333333</v>
       </c>
       <c r="B17" t="n">
-        <v>1.507523748007688</v>
+        <v>2.461051464080811</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9403409090909091</v>
+        <v>0.37125</v>
       </c>
       <c r="B18" t="n">
-        <v>1.591964055191387</v>
+        <v>2.439955234527588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.4039583333333333</v>
       </c>
       <c r="B19" t="n">
-        <v>1.49435171214017</v>
+        <v>2.390206277370453</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.4214583333333333</v>
       </c>
       <c r="B20" t="n">
-        <v>1.47940328988162</v>
+        <v>2.378197312355042</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9375</v>
+        <v>0.4289583333333333</v>
       </c>
       <c r="B21" t="n">
-        <v>1.465632097287612</v>
+        <v>2.336957335472107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9431818181818182</v>
+        <v>0.4289583333333333</v>
       </c>
       <c r="B22" t="n">
-        <v>1.456496926871213</v>
+        <v>2.325402677059174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9488636363636364</v>
+        <v>0.4239583333333333</v>
       </c>
       <c r="B23" t="n">
-        <v>1.46230781620199</v>
+        <v>2.402865588665009</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.4314583333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>1.449863683093678</v>
+        <v>2.332778632640839</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9573863636363636</v>
+        <v>0.4466666666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>1.440070856701244</v>
+        <v>2.287724792957306</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9318181818181818</v>
+        <v>0.4595833333333333</v>
       </c>
       <c r="B26" t="n">
-        <v>1.47163914008574</v>
+        <v>2.252189874649048</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.930506993006993</v>
+        <v>0.4439583333333333</v>
       </c>
       <c r="B27" t="n">
-        <v>1.47409990158948</v>
+        <v>2.282809257507324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.456875</v>
       </c>
       <c r="B28" t="n">
-        <v>1.447184438055212</v>
+        <v>2.218724727630615</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9403409090909091</v>
+        <v>0.481875</v>
       </c>
       <c r="B29" t="n">
-        <v>1.456674657084725</v>
+        <v>2.153827846050262</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9425262237762237</v>
+        <v>0.476875</v>
       </c>
       <c r="B30" t="n">
-        <v>1.45097294178876</v>
+        <v>2.152759611606598</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9475524475524476</v>
+        <v>0.469375</v>
       </c>
       <c r="B31" t="n">
-        <v>1.4383347901431</v>
+        <v>2.185997545719147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.4745833333333333</v>
       </c>
       <c r="B32" t="n">
-        <v>1.459075266664678</v>
+        <v>2.229059755802155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.481875</v>
       </c>
       <c r="B33" t="n">
-        <v>1.446009202436967</v>
+        <v>2.131337910890579</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9261363636363636</v>
+        <v>0.4691666666666667</v>
       </c>
       <c r="B34" t="n">
-        <v>1.437646372751756</v>
+        <v>2.122599124908447</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9261363636363636</v>
+        <v>0.481875</v>
       </c>
       <c r="B35" t="n">
-        <v>1.468771679834886</v>
+        <v>2.08917361497879</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9624125874125874</v>
+        <v>0.5216666666666666</v>
       </c>
       <c r="B36" t="n">
-        <v>1.433684414083307</v>
+        <v>2.079145729541779</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.948208041958042</v>
+        <v>0.5095833333333334</v>
       </c>
       <c r="B37" t="n">
-        <v>1.422533923929388</v>
+        <v>2.068503648042679</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.5181249999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1.426521480083466</v>
+        <v>2.051922887563705</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.4670833333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>1.416807017543099</v>
+        <v>2.095730870962143</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.469375</v>
       </c>
       <c r="B40" t="n">
-        <v>1.414137569340792</v>
+        <v>2.084416508674622</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.466875</v>
       </c>
       <c r="B41" t="n">
-        <v>1.419363585385409</v>
+        <v>2.041053920984268</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.4820833333333333</v>
       </c>
       <c r="B42" t="n">
-        <v>1.422838899222287</v>
+        <v>1.979579895734787</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9573863636363636</v>
+        <v>0.5077083333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>1.414369593967091</v>
+        <v>1.984282910823822</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9431818181818182</v>
+        <v>0.4995833333333333</v>
       </c>
       <c r="B44" t="n">
-        <v>1.426593097773465</v>
+        <v>1.954648584127426</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.504375</v>
       </c>
       <c r="B45" t="n">
-        <v>1.425959847190163</v>
+        <v>1.963489979505539</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.951048951048951</v>
+        <v>0.514375</v>
       </c>
       <c r="B46" t="n">
-        <v>1.411069756204432</v>
+        <v>2.014432311058044</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.525</v>
       </c>
       <c r="B47" t="n">
-        <v>1.420813029462641</v>
+        <v>1.978465110063553</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9460227272727273</v>
+        <v>0.5522916666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>1.411213484677401</v>
+        <v>1.959616541862488</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.5764583333333334</v>
       </c>
       <c r="B49" t="n">
-        <v>1.410840744321997</v>
+        <v>1.941594988107681</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9573863636363636</v>
+        <v>0.5572916666666666</v>
       </c>
       <c r="B50" t="n">
-        <v>1.40993131832643</v>
+        <v>1.928218901157379</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.571875</v>
       </c>
       <c r="B51" t="n">
-        <v>1.409063344652002</v>
+        <v>1.928539574146271</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="B52" t="n">
-        <v>1.410545945167542</v>
+        <v>1.96333172917366</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.6072916666666667</v>
       </c>
       <c r="B53" t="n">
-        <v>1.406258176673542</v>
+        <v>1.910127013921738</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.6122916666666666</v>
       </c>
       <c r="B54" t="n">
-        <v>1.412363496693698</v>
+        <v>1.906960785388947</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9403409090909091</v>
+        <v>0.6047916666666666</v>
       </c>
       <c r="B55" t="n">
-        <v>1.438052719289606</v>
+        <v>1.908328473567963</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.6247916666666666</v>
       </c>
       <c r="B56" t="n">
-        <v>1.418512956662612</v>
+        <v>1.948718160390854</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.6022916666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>1.412110225720839</v>
+        <v>1.887972056865692</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.6224999999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>1.418333860960874</v>
+        <v>1.894727945327759</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.96875</v>
+        <v>0.7135416666666666</v>
       </c>
       <c r="B59" t="n">
-        <v>1.410707983103666</v>
+        <v>1.874555349349976</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.6266666666666666</v>
       </c>
       <c r="B60" t="n">
-        <v>1.407844554294239</v>
+        <v>1.885519504547119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.6316666666666666</v>
       </c>
       <c r="B61" t="n">
-        <v>1.406114654107527</v>
+        <v>1.888838768005371</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9659090909090909</v>
+        <v>0.6704166666666665</v>
       </c>
       <c r="B62" t="n">
-        <v>1.408147963610562</v>
+        <v>1.88144251704216</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.6166666666666666</v>
       </c>
       <c r="B63" t="n">
-        <v>1.403914895924655</v>
+        <v>1.859365403652191</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.6660416666666666</v>
       </c>
       <c r="B64" t="n">
-        <v>1.421589997681704</v>
+        <v>1.872126817703247</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9659090909090909</v>
+        <v>0.6704166666666667</v>
       </c>
       <c r="B65" t="n">
-        <v>1.407225809314034</v>
+        <v>1.851494610309601</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.6677083333333333</v>
       </c>
       <c r="B66" t="n">
-        <v>1.407678024335341</v>
+        <v>1.823344796895981</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.6354166666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>1.402082535353574</v>
+        <v>1.856432020664215</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.7054166666666666</v>
       </c>
       <c r="B68" t="n">
-        <v>1.403413794257424</v>
+        <v>1.785424798727036</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.6966666666666667</v>
       </c>
       <c r="B69" t="n">
-        <v>1.402794669974934</v>
+        <v>1.799176216125488</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.6652083333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>1.403789720752022</v>
+        <v>1.765945255756378</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.6491666666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>1.419195083054629</v>
+        <v>1.7607661485672</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.6191666666666666</v>
       </c>
       <c r="B72" t="n">
-        <v>1.403065421364524</v>
+        <v>1.779311031103134</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.6879166666666666</v>
       </c>
       <c r="B73" t="n">
-        <v>1.40592299266295</v>
+        <v>1.743404358625412</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.7</v>
       </c>
       <c r="B74" t="n">
-        <v>1.410801145163449</v>
+        <v>1.688951373100281</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.6841666666666666</v>
       </c>
       <c r="B75" t="n">
-        <v>1.406274925578724</v>
+        <v>1.702599376440048</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.6772916666666666</v>
       </c>
       <c r="B76" t="n">
-        <v>1.404709718444131</v>
+        <v>1.731591761112213</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9573863636363636</v>
+        <v>0.691875</v>
       </c>
       <c r="B77" t="n">
-        <v>1.404025787656958</v>
+        <v>1.635166615247726</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>1.405947327613831</v>
+        <v>1.616256356239319</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9460227272727273</v>
+        <v>0.6972916666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>1.451384284279563</v>
+        <v>1.591853231191635</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>1.404922366142273</v>
+        <v>1.616018682718277</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9375</v>
+        <v>0.740625</v>
       </c>
       <c r="B81" t="n">
-        <v>1.404947844418612</v>
+        <v>1.591029822826385</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.7095833333333333</v>
       </c>
       <c r="B82" t="n">
-        <v>1.403169832446358</v>
+        <v>1.589052379131317</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9517045454545454</v>
+        <v>0.7481249999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>1.410861356691881</v>
+        <v>1.543181627988815</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9375</v>
+        <v>0.743125</v>
       </c>
       <c r="B84" t="n">
-        <v>1.402606378902089</v>
+        <v>1.493001312017441</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9460227272727273</v>
+        <v>0.7906249999999999</v>
       </c>
       <c r="B85" t="n">
-        <v>1.399759384718808</v>
+        <v>1.565012872219086</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9573863636363636</v>
+        <v>0.7429166666666666</v>
       </c>
       <c r="B86" t="n">
-        <v>1.400854240764271</v>
+        <v>1.479297399520874</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.7354166666666667</v>
       </c>
       <c r="B87" t="n">
-        <v>1.406318843364716</v>
+        <v>1.492718487977982</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9460227272727273</v>
+        <v>0.7429166666666667</v>
       </c>
       <c r="B88" t="n">
-        <v>1.411764860153198</v>
+        <v>1.477165371179581</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9375</v>
+        <v>0.743125</v>
       </c>
       <c r="B89" t="n">
-        <v>1.405926287174225</v>
+        <v>1.446266949176788</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9545454545454546</v>
+        <v>0.7070833333333334</v>
       </c>
       <c r="B90" t="n">
-        <v>1.400375008583069</v>
+        <v>1.529014259576797</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9573863636363636</v>
+        <v>0.745625</v>
       </c>
       <c r="B91" t="n">
-        <v>1.401418328285217</v>
+        <v>1.453824579715729</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9573863636363636</v>
+        <v>0.7254166666666666</v>
       </c>
       <c r="B92" t="n">
-        <v>1.401427014307542</v>
+        <v>1.467684209346771</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.753125</v>
       </c>
       <c r="B93" t="n">
-        <v>1.398906328461387</v>
+        <v>1.39186891913414</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.7579166666666667</v>
       </c>
       <c r="B94" t="n">
-        <v>1.398488955064253</v>
+        <v>1.407744795084</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.7658333333333335</v>
       </c>
       <c r="B95" t="n">
-        <v>1.403548056429083</v>
+        <v>1.361545145511627</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.7579166666666667</v>
       </c>
       <c r="B96" t="n">
-        <v>1.401865774934942</v>
+        <v>1.409935027360916</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.7808333333333334</v>
       </c>
       <c r="B97" t="n">
-        <v>1.401187517426231</v>
+        <v>1.376009047031403</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.798125</v>
       </c>
       <c r="B98" t="n">
-        <v>1.395503363826058</v>
+        <v>1.347993493080139</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.8160416666666667</v>
       </c>
       <c r="B99" t="n">
-        <v>1.401110177690333</v>
+        <v>1.351556539535522</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9630681818181818</v>
+        <v>0.7879166666666666</v>
       </c>
       <c r="B100" t="n">
-        <v>1.398229458115318</v>
+        <v>1.406887918710709</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9602272727272727</v>
+        <v>0.7785416666666666</v>
       </c>
       <c r="B101" t="n">
-        <v>1.399888184937564</v>
+        <v>1.310840129852295</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.80625</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.282329529523849</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.7983333333333333</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.312755197286606</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.7985416666666666</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.292363435029984</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.8285416666666666</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.27646216750145</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.8514583333333334</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.262377500534058</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.8316666666666667</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.238430082798004</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.8441666666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.274056136608124</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.8816666666666666</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.213490784168243</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.8366666666666666</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.276440292596817</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.20409744977951</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.8795833333333334</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.15841805934906</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.8795833333333334</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.164993226528168</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.8966666666666666</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.167304337024689</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.8895833333333334</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.161801189184189</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.8870833333333333</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.188778728246689</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.8866666666666667</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.145110160112381</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.914375</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.105417400598526</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9247916666666667</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.090697422623634</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9122916666666666</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.098484665155411</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9322916666666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.066861718893051</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9195833333333334</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.07638618350029</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9247916666666667</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.060777842998505</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9497916666666667</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.100210338830948</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9447916666666666</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.15080937743187</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9470833333333334</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.039608851075172</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9495833333333333</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.001466512680054</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9697916666666667</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9986906498670578</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9647916666666666</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.014960110187531</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9597916666666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.003780856728554</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9497916666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.945292666554451</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9547916666666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9330668300390244</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9597916666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9065704494714737</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9124490320682526</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9597916666666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9017238914966583</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9672916666666665</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.88590407371521</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.8978183269500732</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9695833333333334</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.8928189873695374</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9697916666666666</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.8668260723352432</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.8569963127374649</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.8490361720323563</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.8631985932588577</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9747916666666666</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.8445009291172028</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.8352896869182587</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9772916666666666</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.8162547945976257</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.84273461997509</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.823380634188652</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.815609946846962</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.831280454993248</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.8103504776954651</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.8060628473758698</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.8050684034824371</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.8109302967786789</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7962868511676788</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7974853217601776</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.7928104400634766</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7904023975133896</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.8005489706993103</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7947857677936554</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7958001643419266</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7919808179140091</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7828924357891083</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7887150049209595</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.7858972400426865</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.7780229300260544</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.79672572016716</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.775041252374649</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7779694497585297</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7778912484645844</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.789679691195488</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7854833602905273</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7640018910169601</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7883989661931992</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7855626046657562</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7683807611465454</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7649243175983429</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7771736681461334</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7756867855787277</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.765348419547081</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7620905488729477</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.769141361117363</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7605530917644501</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.7747647613286972</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7675994038581848</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7761750519275665</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7628271579742432</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7632754743099213</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7679062187671661</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7571082562208176</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7606658339500427</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7518772482872009</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7550690174102783</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7578940540552139</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7720087766647339</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7555695474147797</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7577910721302032</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7585562318563461</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7728855162858963</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7549834251403809</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7584897130727768</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7545187920331955</v>
       </c>
     </row>
   </sheetData>
